--- a/Parameters/OLS.xlsx
+++ b/Parameters/OLS.xlsx
@@ -16,6 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>pvalue</t>
+  </si>
+  <si>
+    <t>r_squared</t>
+  </si>
+  <si>
     <t>DANSKE BANK</t>
   </si>
   <si>
@@ -44,18 +56,6 @@
   </si>
   <si>
     <t>PKO BANK</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>pvalue</t>
-  </si>
-  <si>
-    <t>r_squared</t>
   </si>
 </sst>
 </file>
@@ -413,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,162 +432,174 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>-0.3081</v>
       </c>
       <c r="C2">
+        <v>1.0833</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>-0.4557</v>
-      </c>
-      <c r="D2">
-        <v>0.2785</v>
-      </c>
-      <c r="E2">
-        <v>0.1481</v>
-      </c>
-      <c r="F2">
-        <v>-1.1139</v>
-      </c>
-      <c r="G2">
-        <v>0.3707</v>
-      </c>
-      <c r="H2">
-        <v>-0.6881</v>
-      </c>
-      <c r="I2">
-        <v>0.474</v>
-      </c>
-      <c r="J2">
-        <v>-0.0428</v>
-      </c>
-      <c r="K2">
-        <v>-0.5373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1.0833</v>
       </c>
       <c r="C3">
         <v>0.9659</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.3083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.2785</v>
+      </c>
+      <c r="C4">
         <v>1.1718</v>
       </c>
-      <c r="E3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.4686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.1481</v>
+      </c>
+      <c r="C5">
         <v>0.8394</v>
       </c>
-      <c r="F3">
-        <v>1.397</v>
-      </c>
-      <c r="G3">
-        <v>1.1004</v>
-      </c>
-      <c r="H3">
-        <v>1.7379</v>
-      </c>
-      <c r="I3">
-        <v>1.0007</v>
-      </c>
-      <c r="J3">
-        <v>1.0531</v>
-      </c>
-      <c r="K3">
-        <v>1.0903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.2931</v>
-      </c>
-      <c r="C5">
-        <v>0.3083</v>
-      </c>
       <c r="D5">
-        <v>0.4686</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.3686</v>
       </c>
-      <c r="F5">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>-1.1139</v>
+      </c>
+      <c r="C6">
+        <v>1.397</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.3969</v>
       </c>
-      <c r="G5">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3707</v>
+      </c>
+      <c r="C7">
+        <v>1.1004</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.4489</v>
       </c>
-      <c r="H5">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>-0.6881</v>
+      </c>
+      <c r="C8">
+        <v>1.7379</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5566</v>
       </c>
-      <c r="I5">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.474</v>
+      </c>
+      <c r="C9">
+        <v>1.0007</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.3369</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-0.0428</v>
+      </c>
+      <c r="C10">
+        <v>1.0531</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2738</v>
       </c>
-      <c r="K5">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>-0.5373</v>
+      </c>
+      <c r="C11">
+        <v>1.0903</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.3248</v>
       </c>
     </row>
